--- a/biology/Zoologie/Cratérope_fauve/Cratérope_fauve.xlsx
+++ b/biology/Zoologie/Cratérope_fauve/Cratérope_fauve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_fauve</t>
+          <t>Cratérope_fauve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argya fulva
 Le Cratérope fauve (Argya fulva) est une espèce de passereaux de la famille des Leiothrichidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_fauve</t>
+          <t>Cratérope_fauve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 25 cm de longueur avec une envergure de 27 à 30,5 cm. Il est brun sur le dessus avec de légères rayures sur la couronne et le dos. La gorge est blanchâtre et le reste des parties inférieures est beige.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_fauve</t>
+          <t>Cratérope_fauve</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de manière dissoute au Sahel, en Érythrée et en Afrique du Nord.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_fauve</t>
+          <t>Cratérope_fauve</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les zones arbustives sèches subtropicales ou tropicales.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crat%C3%A9rope_fauve</t>
+          <t>Cratérope_fauve</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Turdoides fulva a été décrite par le naturaliste français René Louiche Desfontaines en 1789[1].
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Turdoides fulva a été décrite par le naturaliste français René Louiche Desfontaines en 1789.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cratérope_fauve</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crat%C3%A9rope_fauve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes :
 A. fulva maroccana  Lynes, 1925 ;
 A. fulva fulva  (Desfontaines, 1789) ;
 A. fulva buchanani  (Hartert, 1921) ;
